--- a/Project Outputs for DIY-USB Led Controller/DIY-USB Led Controller.xlsx
+++ b/Project Outputs for DIY-USB Led Controller/DIY-USB Led Controller.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\Projects\DIY-USB-Led-Controller\Project Outputs for DIY-USB Led Controller\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\Projects\DIY-USB-Led-Controller\DIY-USB-Led-Controller\Project Outputs for DIY-USB Led Controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244B36FF-B546-479C-9A18-9511A25846B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A40D98-866C-44B2-90B9-76D3AABFF580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="131">
   <si>
     <t>Bill of Materials</t>
   </si>
@@ -93,7 +93,7 @@
     <t>Manufacture Part Number</t>
   </si>
   <si>
-    <t>Bill of Materials for PCB Document [DIY-USB Led Controller.PcbDoc]</t>
+    <t>Bill of Materials for Project [DIY-USB Led Controller.PrjPcb] (No PCB Document Selected)</t>
   </si>
   <si>
     <t>DIY-USB Led Controller.PrjPcb</t>
@@ -105,13 +105,13 @@
     <t>DesignItemId</t>
   </si>
   <si>
-    <t>C1206C104K5RAC7025, CAPACITOR X7R, Cap_3</t>
+    <t>C1206C104K5RAC7025, CAPACITOR X7R, Cap_3, Cap_3_1</t>
   </si>
   <si>
     <t>POLARIZED CAP</t>
   </si>
   <si>
-    <t>CAPACITOR X7R, Cap_3, Cap_3_1</t>
+    <t>CAPACITOR X7R, Cap_3</t>
   </si>
   <si>
     <t>Cap_3</t>
@@ -246,6 +246,9 @@
     <t>RES SMD 330 OHM 1% 1/4W 0805</t>
   </si>
   <si>
+    <t>Dip Switch SPST 4 Position Through Hole, Right Angle Piano Actuator 25mA 24VDC</t>
+  </si>
+  <si>
     <t>SWITCH TACTILE SPST-NO 0.05A 12V</t>
   </si>
   <si>
@@ -273,13 +276,13 @@
     <t>C1, C2, C3, C4</t>
   </si>
   <si>
-    <t>C5, C11, C12, C13, C14, C15, C16, C21, C22</t>
+    <t>C5, C11, C12, C13, C14, C15, C16, C21, C22, C27.1, C27.10, C27.2, C27.3, C27.4, C27.5, C27.6, C27.7, C27.8, C27.9, C29.1, C29.10, C29.2, C29.3, C29.4, C29.5, C29.6, C29.7, C29.8, C29.9, C31.1, C31.10, C31.2, C31.3, C31.4, C31.5, C31.6, C31.7, C31.8, C31.9, C33.1, C33.10, C33.2, C33.3, C33.4, C33.5, C33.6, C33.7, C33.8, C33.9</t>
   </si>
   <si>
     <t>C6, C7, C9</t>
   </si>
   <si>
-    <t>C8, C10, C17, C18, C19, C20, C25, C26, C27.1, C27.10, C27.2, C27.3, C27.4, C27.5, C27.6, C27.7, C27.8, C27.9, C28.1, C28.10, C28.2, C28.3, C28.4, C28.5, C28.6, C28.7, C28.8, C28.9, C29.1, C29.10, C29.2, C29.3, C29.4, C29.5, C29.6, C29.7, C29.8, C29.9, C30.1, C30.10, C30.2, C30.3, C30.4, C30.5, C30.6, C30.7, C30.8, C30.9, C31.1, C31.10, C31.2, C31.3, C31.4, C31.5, C31.6, C31.7, C31.8, C31.9, C32.1, C32.10, C32.2, C32.3, C32.4, C32.5, C32.6, C32.7, C32.8, C32.9, C33.1, C33.10, C33.2, C33.3, C33.4, C33.5, C33.6, C33.7, C33.8, C33.9, C34.1, C34.10, C34.2, C34.3, C34.4, C34.5, C34.6, C34.7, C34.8, C34.9</t>
+    <t>C8, C10, C17, C18, C19, C20, C25, C26, C28.1, C28.10, C28.2, C28.3, C28.4, C28.5, C28.6, C28.7, C28.8, C28.9, C30.1, C30.10, C30.2, C30.3, C30.4, C30.5, C30.6, C30.7, C30.8, C30.9, C32.1, C32.10, C32.2, C32.3, C32.4, C32.5, C32.6, C32.7, C32.8, C32.9, C34.1, C34.10, C34.2, C34.3, C34.4, C34.5, C34.6, C34.7, C34.8, C34.9</t>
   </si>
   <si>
     <t>C23, C24</t>
@@ -738,7 +741,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{2B0F5263-443B-4512-BB2D-841948954154}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{BDF93B81-F910-4750-B29F-98F2A07A867C}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1156,7 +1159,7 @@
   </sheetPr>
   <dimension ref="B1:K53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -1353,19 +1356,19 @@
         <v>12</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J12" s="15" t="s">
         <v>17</v>
@@ -1378,15 +1381,15 @@
         <v>47</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I13" s="18"/>
       <c r="J13" s="16">
@@ -1394,7 +1397,7 @@
       </c>
       <c r="K13" s="10"/>
     </row>
-    <row r="14" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" ht="230.4" x14ac:dyDescent="0.3">
       <c r="B14" s="32" t="s">
         <v>23</v>
       </c>
@@ -1402,19 +1405,19 @@
         <v>48</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I14" s="18"/>
       <c r="J14" s="16">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="K14" s="10"/>
     </row>
@@ -1426,7 +1429,7 @@
         <v>49</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
@@ -1438,7 +1441,7 @@
       </c>
       <c r="K15" s="10"/>
     </row>
-    <row r="16" spans="2:11" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" ht="216" x14ac:dyDescent="0.3">
       <c r="B16" s="32" t="s">
         <v>25</v>
       </c>
@@ -1446,7 +1449,7 @@
         <v>50</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
@@ -1454,7 +1457,7 @@
       <c r="H16" s="25"/>
       <c r="I16" s="18"/>
       <c r="J16" s="16">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="K16" s="10"/>
     </row>
@@ -1466,7 +1469,7 @@
         <v>51</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
@@ -1486,7 +1489,7 @@
         <v>52</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
@@ -1506,7 +1509,7 @@
         <v>53</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
@@ -1526,7 +1529,7 @@
         <v>54</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
@@ -1546,7 +1549,7 @@
         <v>55</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
@@ -1566,7 +1569,7 @@
         <v>56</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
@@ -1586,7 +1589,7 @@
         <v>57</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
@@ -1604,7 +1607,7 @@
         <v>58</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
@@ -1624,7 +1627,7 @@
         <v>59</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
@@ -1642,15 +1645,15 @@
         <v>60</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
       <c r="G26" s="25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I26" s="18"/>
       <c r="J26" s="16">
@@ -1666,7 +1669,7 @@
         <v>32</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
@@ -1684,15 +1687,15 @@
         <v>61</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
       <c r="G28" s="25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I28" s="18"/>
       <c r="J28" s="16">
@@ -1708,7 +1711,7 @@
         <v>62</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E29" s="25"/>
       <c r="F29" s="25"/>
@@ -1728,15 +1731,15 @@
         <v>63</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E30" s="25"/>
       <c r="F30" s="25"/>
       <c r="G30" s="25" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I30" s="18"/>
       <c r="J30" s="16">
@@ -1752,7 +1755,7 @@
         <v>64</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E31" s="25"/>
       <c r="F31" s="25"/>
@@ -1772,7 +1775,7 @@
         <v>65</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E32" s="25"/>
       <c r="F32" s="25"/>
@@ -1792,7 +1795,7 @@
         <v>66</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E33" s="25"/>
       <c r="F33" s="25"/>
@@ -1812,7 +1815,7 @@
         <v>67</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E34" s="25"/>
       <c r="F34" s="25"/>
@@ -1832,7 +1835,7 @@
         <v>68</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E35" s="25"/>
       <c r="F35" s="25"/>
@@ -1852,7 +1855,7 @@
         <v>69</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E36" s="25"/>
       <c r="F36" s="25"/>
@@ -1864,13 +1867,15 @@
       </c>
       <c r="K36" s="10"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B37" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="30"/>
+      <c r="C37" s="30" t="s">
+        <v>70</v>
+      </c>
       <c r="D37" s="24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E37" s="25"/>
       <c r="F37" s="25"/>
@@ -1885,18 +1890,18 @@
     <row r="38" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B38" s="32"/>
       <c r="C38" s="30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E38" s="25"/>
       <c r="F38" s="25"/>
       <c r="G38" s="25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I38" s="18"/>
       <c r="J38" s="16">
@@ -1909,10 +1914,10 @@
         <v>40</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E39" s="25"/>
       <c r="F39" s="25"/>
@@ -1929,22 +1934,22 @@
         <v>41</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I40" s="18"/>
       <c r="J40" s="16">
@@ -1957,10 +1962,10 @@
         <v>42</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E41" s="25"/>
       <c r="F41" s="25"/>
@@ -1977,10 +1982,10 @@
         <v>43</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E42" s="25"/>
       <c r="F42" s="25"/>
@@ -1997,10 +2002,10 @@
         <v>44</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E43" s="25"/>
       <c r="F43" s="25"/>
@@ -2017,18 +2022,18 @@
         <v>45</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E44" s="25"/>
       <c r="F44" s="25"/>
       <c r="G44" s="25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I44" s="18"/>
       <c r="J44" s="16">
@@ -2041,10 +2046,10 @@
         <v>46</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E45" s="25"/>
       <c r="F45" s="25"/>

--- a/Project Outputs for DIY-USB Led Controller/DIY-USB Led Controller.xlsx
+++ b/Project Outputs for DIY-USB Led Controller/DIY-USB Led Controller.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\Projects\DIY-USB-Led-Controller\DIY-USB-Led-Controller\Project Outputs for DIY-USB Led Controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A40D98-866C-44B2-90B9-76D3AABFF580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA3C8ABB-BE2C-4FDD-847B-291AD6005A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="130">
   <si>
     <t>Bill of Materials</t>
   </si>
@@ -93,7 +94,7 @@
     <t>Manufacture Part Number</t>
   </si>
   <si>
-    <t>Bill of Materials for Project [DIY-USB Led Controller.PrjPcb] (No PCB Document Selected)</t>
+    <t>Bill of Materials for PCB Document [DIY-USB Led Controller.PcbDoc]</t>
   </si>
   <si>
     <t>DIY-USB Led Controller.PrjPcb</t>
@@ -105,18 +106,21 @@
     <t>DesignItemId</t>
   </si>
   <si>
+    <t>POLARIZED CAP</t>
+  </si>
+  <si>
+    <t>CAPACITOR X7R, Cap_3</t>
+  </si>
+  <si>
     <t>C1206C104K5RAC7025, CAPACITOR X7R, Cap_3, Cap_3_1</t>
   </si>
   <si>
-    <t>POLARIZED CAP</t>
-  </si>
-  <si>
-    <t>CAPACITOR X7R, Cap_3</t>
-  </si>
-  <si>
     <t>Cap_3</t>
   </si>
   <si>
+    <t>SMD LED INDICATORS_2, SMD LED INDICATORS</t>
+  </si>
+  <si>
     <t>Diod DO-214AC</t>
   </si>
   <si>
@@ -129,9 +133,6 @@
     <t>WP154A4SEJ3VBDZGC/CA</t>
   </si>
   <si>
-    <t>TermBlock 3</t>
-  </si>
-  <si>
     <t>Socket</t>
   </si>
   <si>
@@ -150,6 +151,9 @@
     <t>IRF540NS</t>
   </si>
   <si>
+    <t>RESISTOR_2, RESISTOR</t>
+  </si>
+  <si>
     <t>RESISTOR</t>
   </si>
   <si>
@@ -159,12 +163,12 @@
     <t>CH340G</t>
   </si>
   <si>
+    <t>LM1117IMP-5.0/NOPB</t>
+  </si>
+  <si>
     <t>MAX232DR</t>
   </si>
   <si>
-    <t>LM1117IMP-5.0/NOPB</t>
-  </si>
-  <si>
     <t>AVR64DB64T-E/PT</t>
   </si>
   <si>
@@ -177,21 +181,24 @@
     <t>CRYSTAL</t>
   </si>
   <si>
+    <t>CAP ALUM 470UF 20% 16V RADIAL</t>
+  </si>
+  <si>
+    <t>4.7 µF ±10% 6.3V Ceramic Capacitor X5R 0805 (2012 Metric)</t>
+  </si>
+  <si>
     <t>1 µF ±10% 50V Ceramic Capacitor X7R 0805 (2012 Metric)</t>
   </si>
   <si>
     <t>0.1 µF ±20% 50V Ceramic Capacitor X7R 0805 (2012 Metric)</t>
   </si>
   <si>
-    <t>CAP ALUM 470UF 20% 16V RADIAL</t>
-  </si>
-  <si>
-    <t>4.7 µF ±10% 6.3V Ceramic Capacitor X5R 0805 (2012 Metric)</t>
-  </si>
-  <si>
     <t>22 pF ±20% 50V Ceramic Capacitor X8R 0805 (2012 Metric)</t>
   </si>
   <si>
+    <t>LED YELLOW DIFFUSED 0805 SMD</t>
+  </si>
+  <si>
     <t>DIODE GEN PURP 1KV 1A SMA  S1M</t>
   </si>
   <si>
@@ -201,9 +208,6 @@
     <t>LED GREEN DIFFUSED 0805 SMD</t>
   </si>
   <si>
-    <t>LED YELLOW DIFFUSED 0805 SMD</t>
-  </si>
-  <si>
     <t>DIODE SCHOTTKY 60V 1A SOD123</t>
   </si>
   <si>
@@ -213,18 +217,15 @@
     <t>Resetable PTC fuse, Ih = 0.5A, It = 1.0A, 0805 package</t>
   </si>
   <si>
-    <t>3 pin term block</t>
-  </si>
-  <si>
-    <t>TERM BLOCK PLUG 2POS STR 5.08MM</t>
+    <t>TERM BLOCK HDR 4POS 90DEG 5.08MM</t>
+  </si>
+  <si>
+    <t>2x3 pin header, 2.54 mm pitch, THM</t>
   </si>
   <si>
     <t>CONN HEADER VERT 4POS 2.5MM</t>
   </si>
   <si>
-    <t>2x3 pin header, 2.54 mm pitch, THM</t>
-  </si>
-  <si>
     <t>USB-B (USB TYPE-B) USB 2.0 Receptacle Connector 4 Position Through Hole, Right Angle</t>
   </si>
   <si>
@@ -237,12 +238,12 @@
     <t>MOSFET N-CH 60V 20A DPAK</t>
   </si>
   <si>
+    <t>RES SMD 1K OHM 1% 1/4W 0805</t>
+  </si>
+  <si>
     <t>RES SMD 10K OHM 1% 1/4W 0805</t>
   </si>
   <si>
-    <t>RES SMD 1K OHM 1% 1/4W 0805</t>
-  </si>
-  <si>
     <t>RES SMD 330 OHM 1% 1/4W 0805</t>
   </si>
   <si>
@@ -255,12 +256,12 @@
     <t>CH340G USB TO SERIAL (TTL) IC</t>
   </si>
   <si>
+    <t>800mA Low-Dropout Linear Regulator, 4-pin SOT-223, Pb-Free</t>
+  </si>
+  <si>
     <t>IC TRANSCEIVER FULL 2/2 16SOIC</t>
   </si>
   <si>
-    <t>800mA Low-Dropout Linear Regulator, 4-pin SOT-223, Pb-Free</t>
-  </si>
-  <si>
     <t>AVR series Microcontroller IC 8-Bit 24MHz 64KB (64K x 8) FLASH 64-TQFP (10x10)</t>
   </si>
   <si>
@@ -273,22 +274,22 @@
     <t>12 MHz ±30ppm Crystal 20pF 50 Ohms HC-49/US</t>
   </si>
   <si>
-    <t>C1, C2, C3, C4</t>
-  </si>
-  <si>
-    <t>C5, C11, C12, C13, C14, C15, C16, C21, C22, C27.1, C27.10, C27.2, C27.3, C27.4, C27.5, C27.6, C27.7, C27.8, C27.9, C29.1, C29.10, C29.2, C29.3, C29.4, C29.5, C29.6, C29.7, C29.8, C29.9, C31.1, C31.10, C31.2, C31.3, C31.4, C31.5, C31.6, C31.7, C31.8, C31.9, C33.1, C33.10, C33.2, C33.3, C33.4, C33.5, C33.6, C33.7, C33.8, C33.9</t>
-  </si>
-  <si>
-    <t>C6, C7, C9</t>
-  </si>
-  <si>
-    <t>C8, C10, C17, C18, C19, C20, C25, C26, C28.1, C28.10, C28.2, C28.3, C28.4, C28.5, C28.6, C28.7, C28.8, C28.9, C30.1, C30.10, C30.2, C30.3, C30.4, C30.5, C30.6, C30.7, C30.8, C30.9, C32.1, C32.10, C32.2, C32.3, C32.4, C32.5, C32.6, C32.7, C32.8, C32.9, C34.1, C34.10, C34.2, C34.3, C34.4, C34.5, C34.6, C34.7, C34.8, C34.9</t>
-  </si>
-  <si>
-    <t>C23, C24</t>
-  </si>
-  <si>
-    <t>D1</t>
+    <t>C1, C2, C4</t>
+  </si>
+  <si>
+    <t>C3, C5, C17, C18, C19, C20, C22</t>
+  </si>
+  <si>
+    <t>C6, C7, C8, C9</t>
+  </si>
+  <si>
+    <t>C10, C11, C12, C13, C14, C15, C16, C21, C23, C26.1, C26.10, C26.2, C26.3, C26.4, C26.5, C26.6, C26.7, C26.8, C26.9, C27.1, C27.10, C27.2, C27.3, C27.4, C27.5, C27.6, C27.7, C27.8, C27.9, C28.1, C28.10, C28.2, C28.3, C28.4, C28.5, C28.6, C28.7, C28.8, C28.9, C29.1, C29.10, C29.2, C29.3, C29.4, C29.5, C29.6, C29.7, C29.8, C29.9</t>
+  </si>
+  <si>
+    <t>C24, C25</t>
+  </si>
+  <si>
+    <t>D1, D5, D6</t>
   </si>
   <si>
     <t>D2</t>
@@ -297,28 +298,25 @@
     <t>D3</t>
   </si>
   <si>
-    <t>D4, D5</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>D7.1, D7.10, D7.2, D7.3, D7.4, D7.5, D7.6, D7.7, D7.8, D7.9</t>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D8.1, D8.10, D8.2, D8.3, D8.4, D8.5, D8.6, D8.7, D8.8, D8.9</t>
   </si>
   <si>
     <t>F1</t>
   </si>
   <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>J2</t>
-  </si>
-  <si>
-    <t>J3, J5, J6, J7</t>
-  </si>
-  <si>
-    <t>J4</t>
+    <t>J1, J2, J4, J6, J7</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>J5</t>
   </si>
   <si>
     <t>J8</t>
@@ -336,13 +334,13 @@
     <t>Q3.1, Q3.10, Q3.2, Q3.3, Q3.4, Q3.5, Q3.6, Q3.7, Q3.8, Q3.9, Q4.1, Q4.10, Q4.2, Q4.3, Q4.4, Q4.5, Q4.6, Q4.7, Q4.8, Q4.9, Q5.1, Q5.10, Q5.2, Q5.3, Q5.4, Q5.5, Q5.6, Q5.7, Q5.8, Q5.9, Q6.1, Q6.10, Q6.2, Q6.3, Q6.4, Q6.5, Q6.6, Q6.7, Q6.8, Q6.9</t>
   </si>
   <si>
-    <t>R1, R4, R5, R6</t>
-  </si>
-  <si>
-    <t>R2, R7, R8, R9, R10</t>
-  </si>
-  <si>
-    <t>R3</t>
+    <t>R1, R3, R8, R9, R10, R11, R12.1, R12.10, R12.2, R12.3, R12.4, R12.5, R12.6, R12.7, R12.8, R12.9</t>
+  </si>
+  <si>
+    <t>R2, R5, R6, R7</t>
+  </si>
+  <si>
+    <t>R4</t>
   </si>
   <si>
     <t>S1</t>
@@ -408,7 +406,7 @@
     <t>399-7356-1-ND, [NoParam]</t>
   </si>
   <si>
-    <t>A98333-ND</t>
+    <t>A98335-ND</t>
   </si>
   <si>
     <t>455-2249-ND</t>
@@ -432,7 +430,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
@@ -669,17 +667,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -690,7 +683,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -700,13 +692,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
@@ -731,8 +720,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -740,9 +728,7 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{BDF93B81-F910-4750-B29F-98F2A07A867C}"/>
-  </tableStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1157,9 +1143,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:K53"/>
+  <dimension ref="B1:K52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -1177,981 +1163,878 @@
     <col min="11" max="11" width="4.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-    </row>
+    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:11" ht="30" x14ac:dyDescent="0.3">
-      <c r="B2" s="31"/>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="5"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="10"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8" t="s">
+      <c r="B3" s="5"/>
+      <c r="I3" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="7"/>
+      <c r="K3" s="5"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="10"/>
-      <c r="C4" s="27" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8" t="s">
+      <c r="E4" s="3"/>
+      <c r="I4" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="7"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="10"/>
-      <c r="C5" s="27" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8" t="s">
+      <c r="E5" s="1"/>
+      <c r="I5" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="7"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="10"/>
-      <c r="C6" s="28" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="33" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="9"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8" t="s">
+      <c r="I6" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="7"/>
+      <c r="K6" s="5"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="10"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="10"/>
+      <c r="B7" s="5"/>
+      <c r="K7" s="5"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="10"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="10"/>
+      <c r="B8" s="5"/>
+      <c r="K8" s="5"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="10"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="10"/>
+      <c r="B9" s="5"/>
+      <c r="K9" s="5"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="10"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="10"/>
+      <c r="B10" s="5"/>
+      <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="F11" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="37" t="s">
+      <c r="G11" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="37" t="s">
+      <c r="H11" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="37" t="s">
+      <c r="I11" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="38" t="s">
+      <c r="J11" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="10"/>
+      <c r="K11" s="5"/>
     </row>
     <row r="12" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="22" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="11">
+        <v>3</v>
+      </c>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B14" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="11">
+        <v>7</v>
+      </c>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B15" s="25"/>
+      <c r="C15" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="I15" s="13"/>
+      <c r="J15" s="11">
+        <v>4</v>
+      </c>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="2:11" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="B16" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="I16" s="13"/>
+      <c r="J16" s="11">
+        <v>49</v>
+      </c>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B17" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="11">
+        <v>2</v>
+      </c>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B18" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="11">
+        <v>3</v>
+      </c>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B19" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="11">
+        <v>1</v>
+      </c>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B20" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="11">
+        <v>1</v>
+      </c>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B21" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="11">
+        <v>1</v>
+      </c>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B22" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="11">
+        <v>1</v>
+      </c>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B23" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="11">
+        <v>10</v>
+      </c>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B24" s="25"/>
+      <c r="C24" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="11">
+        <v>1</v>
+      </c>
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B25" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="11">
+        <v>5</v>
+      </c>
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B26" s="25"/>
+      <c r="C26" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="I26" s="13"/>
+      <c r="J26" s="11">
+        <v>1</v>
+      </c>
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B27" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="11">
+        <v>1</v>
+      </c>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B28" s="25"/>
+      <c r="C28" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="I28" s="13"/>
+      <c r="J28" s="11">
+        <v>1</v>
+      </c>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B29" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="I29" s="13"/>
+      <c r="J29" s="11">
+        <v>1</v>
+      </c>
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="11">
+        <v>10</v>
+      </c>
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B31" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="11">
+        <v>2</v>
+      </c>
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" spans="2:11" ht="144" x14ac:dyDescent="0.3">
+      <c r="B32" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="11">
+        <v>40</v>
+      </c>
+      <c r="K32" s="5"/>
+    </row>
+    <row r="33" spans="2:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="B33" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="11">
+        <v>16</v>
+      </c>
+      <c r="K33" s="5"/>
+    </row>
+    <row r="34" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B34" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="11">
+        <v>4</v>
+      </c>
+      <c r="K34" s="5"/>
+    </row>
+    <row r="35" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B35" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="11">
+        <v>1</v>
+      </c>
+      <c r="K35" s="5"/>
+    </row>
+    <row r="36" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B36" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="11">
+        <v>1</v>
+      </c>
+      <c r="K36" s="5"/>
+    </row>
+    <row r="37" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B37" s="25"/>
+      <c r="C37" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="H37" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="I37" s="13"/>
+      <c r="J37" s="11">
+        <v>1</v>
+      </c>
+      <c r="K37" s="5"/>
+    </row>
+    <row r="38" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B38" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="11">
+        <v>1</v>
+      </c>
+      <c r="K38" s="5"/>
+    </row>
+    <row r="39" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B39" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="11">
+        <v>1</v>
+      </c>
+      <c r="K39" s="5"/>
+    </row>
+    <row r="40" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B40" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F40" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G40" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="H40" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="I40" s="13"/>
+      <c r="J40" s="11">
+        <v>1</v>
+      </c>
+      <c r="K40" s="5"/>
+    </row>
+    <row r="41" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B41" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="11">
+        <v>1</v>
+      </c>
+      <c r="K41" s="5"/>
+    </row>
+    <row r="42" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B42" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="11">
+        <v>1</v>
+      </c>
+      <c r="K42" s="5"/>
+    </row>
+    <row r="43" spans="2:11" ht="144" x14ac:dyDescent="0.3">
+      <c r="B43" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="H12" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="10"/>
-    </row>
-    <row r="13" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B13" s="32"/>
-      <c r="C13" s="30" t="s">
+      <c r="H43" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="I43" s="13"/>
+      <c r="J43" s="11">
+        <v>40</v>
+      </c>
+      <c r="K43" s="5"/>
+    </row>
+    <row r="44" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B44" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="16">
-        <v>4</v>
-      </c>
-      <c r="K13" s="10"/>
-    </row>
-    <row r="14" spans="2:11" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="B14" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="H14" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="16">
-        <v>49</v>
-      </c>
-      <c r="K14" s="10"/>
-    </row>
-    <row r="15" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B15" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="16">
-        <v>3</v>
-      </c>
-      <c r="K15" s="10"/>
-    </row>
-    <row r="16" spans="2:11" ht="216" x14ac:dyDescent="0.3">
-      <c r="B16" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="16">
-        <v>48</v>
-      </c>
-      <c r="K16" s="10"/>
-    </row>
-    <row r="17" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B17" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="16">
-        <v>2</v>
-      </c>
-      <c r="K17" s="10"/>
-    </row>
-    <row r="18" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B18" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="16">
+      <c r="C44" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="11">
         <v>1</v>
       </c>
-      <c r="K18" s="10"/>
-    </row>
-    <row r="19" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B19" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="16">
-        <v>1</v>
-      </c>
-      <c r="K19" s="10"/>
-    </row>
-    <row r="20" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B20" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="16">
-        <v>1</v>
-      </c>
-      <c r="K20" s="10"/>
-    </row>
-    <row r="21" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B21" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="16">
-        <v>2</v>
-      </c>
-      <c r="K21" s="10"/>
-    </row>
-    <row r="22" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B22" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="16">
-        <v>1</v>
-      </c>
-      <c r="K22" s="10"/>
-    </row>
-    <row r="23" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B23" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="16">
-        <v>10</v>
-      </c>
-      <c r="K23" s="10"/>
-    </row>
-    <row r="24" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B24" s="32"/>
-      <c r="C24" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="16">
-        <v>1</v>
-      </c>
-      <c r="K24" s="10"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="16">
-        <v>1</v>
-      </c>
-      <c r="K25" s="10"/>
-    </row>
-    <row r="26" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B26" s="32"/>
-      <c r="C26" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="H26" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="I26" s="18"/>
-      <c r="J26" s="16">
-        <v>1</v>
-      </c>
-      <c r="K26" s="10"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="16">
-        <v>4</v>
-      </c>
-      <c r="K27" s="10"/>
-    </row>
-    <row r="28" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B28" s="32"/>
-      <c r="C28" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="H28" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="I28" s="18"/>
-      <c r="J28" s="16">
-        <v>1</v>
-      </c>
-      <c r="K28" s="10"/>
-    </row>
-    <row r="29" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B29" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="16">
-        <v>1</v>
-      </c>
-      <c r="K29" s="10"/>
-    </row>
-    <row r="30" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B30" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="H30" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="I30" s="18"/>
-      <c r="J30" s="16">
-        <v>1</v>
-      </c>
-      <c r="K30" s="10"/>
-    </row>
-    <row r="31" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B31" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="16">
-        <v>10</v>
-      </c>
-      <c r="K31" s="10"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="16">
-        <v>2</v>
-      </c>
-      <c r="K32" s="10"/>
-    </row>
-    <row r="33" spans="2:11" ht="144" x14ac:dyDescent="0.3">
-      <c r="B33" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="16">
-        <v>40</v>
-      </c>
-      <c r="K33" s="10"/>
-    </row>
-    <row r="34" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B34" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="16">
-        <v>4</v>
-      </c>
-      <c r="K34" s="10"/>
-    </row>
-    <row r="35" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B35" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="16">
-        <v>5</v>
-      </c>
-      <c r="K35" s="10"/>
-    </row>
-    <row r="36" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B36" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="16">
-        <v>1</v>
-      </c>
-      <c r="K36" s="10"/>
-    </row>
-    <row r="37" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B37" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="16">
-        <v>1</v>
-      </c>
-      <c r="K37" s="10"/>
-    </row>
-    <row r="38" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B38" s="32"/>
-      <c r="C38" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="D38" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="H38" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="I38" s="18"/>
-      <c r="J38" s="16">
-        <v>1</v>
-      </c>
-      <c r="K38" s="10"/>
-    </row>
-    <row r="39" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B39" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="16">
-        <v>1</v>
-      </c>
-      <c r="K39" s="10"/>
-    </row>
-    <row r="40" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B40" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="D40" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="E40" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="F40" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="G40" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="H40" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="I40" s="18"/>
-      <c r="J40" s="16">
-        <v>1</v>
-      </c>
-      <c r="K40" s="10"/>
-    </row>
-    <row r="41" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B41" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="D41" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="16">
-        <v>1</v>
-      </c>
-      <c r="K41" s="10"/>
-    </row>
-    <row r="42" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B42" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="D42" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="16">
-        <v>1</v>
-      </c>
-      <c r="K42" s="10"/>
-    </row>
-    <row r="43" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B43" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="D43" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="16">
-        <v>1</v>
-      </c>
-      <c r="K43" s="10"/>
-    </row>
-    <row r="44" spans="2:11" ht="144" x14ac:dyDescent="0.3">
-      <c r="B44" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="D44" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="H44" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="I44" s="18"/>
-      <c r="J44" s="16">
-        <v>40</v>
-      </c>
-      <c r="K44" s="10"/>
-    </row>
-    <row r="45" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B45" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="D45" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="16">
-        <v>1</v>
-      </c>
-      <c r="K45" s="10"/>
+      <c r="K44" s="5"/>
+    </row>
+    <row r="45" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="26"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="14">
+        <f>SUM(I13:I44)</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="12">
+        <f>SUM(J13:J44)</f>
+        <v>213</v>
+      </c>
+      <c r="K45" s="5"/>
     </row>
     <row r="46" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="33"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="19">
-        <f>SUM(I13:I45)</f>
-        <v>0</v>
-      </c>
-      <c r="J46" s="17">
-        <f>SUM(J13:J45)</f>
-        <v>242</v>
-      </c>
-      <c r="K46" s="10"/>
-    </row>
-    <row r="47" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J47" s="20"/>
-      <c r="K47" s="9"/>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B47" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="15"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="21"/>
-      <c r="D48" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="21"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="16"/>
+      <c r="J48" s="16"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B49" s="10"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="22"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="16"/>
+      <c r="J49" s="16"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B50" s="10"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="22"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="16"/>
+      <c r="J50" s="16"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B51" s="10"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="22"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B52" s="10"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="22"/>
-    </row>
-    <row r="53" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="12"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="23"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="16"/>
+      <c r="J51" s="16"/>
+    </row>
+    <row r="52" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="7"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
